--- a/docs/dududb_db_design.xlsx
+++ b/docs/dududb_db_design.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4506"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="90" windowWidth="19200" windowHeight="11640" firstSheet="7" activeTab="9"/>
+    <workbookView xWindow="0" yWindow="90" windowWidth="19200" windowHeight="11640" firstSheet="2" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="概述" sheetId="1" r:id="rId1"/>
@@ -25,13 +25,15 @@
     <sheet name="compliant(投诉建议）" sheetId="16" r:id="rId16"/>
     <sheet name="passenger_position(乘客位置表)" sheetId="17" r:id="rId17"/>
     <sheet name="driver_position(司机位置表)" sheetId="18" r:id="rId18"/>
+    <sheet name="order_id_list(订单号列表)" sheetId="19" r:id="rId19"/>
+    <sheet name="driver_status(司机状态表)" sheetId="20" r:id="rId20"/>
   </sheets>
   <calcPr calcId="125725"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="628" uniqueCount="231">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="667" uniqueCount="246">
   <si>
     <t>1、本文档中所有工作表名均为无前缀表名，使用中请根据实际情况加入表前缀
 2、目前dududache使用dudu_表前缀</t>
@@ -999,12 +1001,101 @@
     <t>truename</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
+  <si>
+    <t>bigint</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>smallint</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1为普通订单，2为预约订单</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>date</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>current_order_id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>order_type</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>order_date</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>日期</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>联合唯一索引</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>订单号为：年月日+订单类型+后缀订单号（10位）
+例如：20130705第102个普通订单：20130705</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="4" tint="-0.249977111117893"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>0000000102</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">0下班
+1绿车
+2黄车
+9其它
+</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>司机目前状态</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>司机到达时间</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>driver_arrived_time</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="5">
+  <fonts count="7">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1041,6 +1132,22 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="4" tint="-0.249977111117893"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -1064,7 +1171,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1088,6 +1195,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1501,7 +1611,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:H5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
@@ -2392,7 +2502,7 @@
   <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -2436,7 +2546,7 @@
         <v>34</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>52</v>
+        <v>86</v>
       </c>
       <c r="E2" s="3" t="s">
         <v>42</v>
@@ -2505,6 +2615,155 @@
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:H21"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H3" sqref="H3:H4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5"/>
+  <cols>
+    <col min="2" max="2" width="17" customWidth="1"/>
+    <col min="3" max="3" width="21.375" customWidth="1"/>
+    <col min="4" max="5" width="10.125" customWidth="1"/>
+    <col min="6" max="6" width="13.5" customWidth="1"/>
+    <col min="7" max="7" width="12.875" customWidth="1"/>
+    <col min="8" max="8" width="16.625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8">
+      <c r="A1" s="3"/>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8">
+      <c r="A2" s="3">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
+        <v>236</v>
+      </c>
+      <c r="C2" t="s">
+        <v>231</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>233</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" ht="27">
+      <c r="A3" s="3">
+        <v>2</v>
+      </c>
+      <c r="B3" t="s">
+        <v>237</v>
+      </c>
+      <c r="C3" t="s">
+        <v>232</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E3" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>234</v>
+      </c>
+      <c r="H3" s="8" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8">
+      <c r="A4" s="3">
+        <v>3</v>
+      </c>
+      <c r="B4" t="s">
+        <v>238</v>
+      </c>
+      <c r="C4" t="s">
+        <v>235</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>239</v>
+      </c>
+      <c r="E4" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="H4" s="8"/>
+    </row>
+    <row r="16" spans="1:8">
+      <c r="C16" s="7" t="s">
+        <v>241</v>
+      </c>
+      <c r="D16" s="7"/>
+      <c r="E16" s="7"/>
+      <c r="F16" s="7"/>
+    </row>
+    <row r="17" spans="3:6">
+      <c r="C17" s="7"/>
+      <c r="D17" s="7"/>
+      <c r="E17" s="7"/>
+      <c r="F17" s="7"/>
+    </row>
+    <row r="18" spans="3:6">
+      <c r="C18" s="7"/>
+      <c r="D18" s="7"/>
+      <c r="E18" s="7"/>
+      <c r="F18" s="7"/>
+    </row>
+    <row r="19" spans="3:6">
+      <c r="C19" s="7"/>
+      <c r="D19" s="7"/>
+      <c r="E19" s="7"/>
+      <c r="F19" s="7"/>
+    </row>
+    <row r="20" spans="3:6">
+      <c r="C20" s="7"/>
+      <c r="D20" s="7"/>
+      <c r="E20" s="7"/>
+      <c r="F20" s="7"/>
+    </row>
+    <row r="21" spans="3:6">
+      <c r="C21" s="7"/>
+      <c r="D21" s="7"/>
+      <c r="E21" s="7"/>
+      <c r="F21" s="7"/>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="C16:F21"/>
+    <mergeCell ref="H3:H4"/>
+  </mergeCells>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -2806,6 +3065,95 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:H4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H3" sqref="H3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5"/>
+  <cols>
+    <col min="2" max="2" width="13.625" customWidth="1"/>
+    <col min="3" max="3" width="21.625" customWidth="1"/>
+    <col min="4" max="4" width="13.5" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8">
+      <c r="A1" s="3"/>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8">
+      <c r="A2" s="3">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C2" t="s">
+        <v>34</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="H2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" ht="67.5">
+      <c r="A3" s="3">
+        <v>2</v>
+      </c>
+      <c r="B3" t="s">
+        <v>16</v>
+      </c>
+      <c r="C3" t="s">
+        <v>232</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>243</v>
+      </c>
+      <c r="E3" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8">
+      <c r="A4" s="3"/>
+      <c r="D4" s="1"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr codeName="Sheet3"/>
@@ -3197,8 +3545,8 @@
   <sheetPr codeName="Sheet4"/>
   <dimension ref="A1:H16"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="B15" sqref="B15"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -3332,7 +3680,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="7" spans="1:8" ht="189" customHeight="1">
+    <row r="7" spans="1:8" ht="206.25" customHeight="1">
       <c r="A7" s="3">
         <v>8</v>
       </c>
@@ -3443,13 +3791,13 @@
         <v>13</v>
       </c>
       <c r="B12" t="s">
-        <v>21</v>
+        <v>245</v>
       </c>
       <c r="C12" t="s">
         <v>40</v>
       </c>
       <c r="D12" t="s">
-        <v>22</v>
+        <v>244</v>
       </c>
       <c r="E12" s="3" t="s">
         <v>42</v>
@@ -3540,8 +3888,8 @@
   <sheetPr codeName="Sheet5"/>
   <dimension ref="A1:H18"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="B11" sqref="B11"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G7" sqref="G7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>

--- a/docs/dududb_db_design.xlsx
+++ b/docs/dududb_db_design.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4506"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="90" windowWidth="19200" windowHeight="11640" firstSheet="2" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="90" windowWidth="19200" windowHeight="11640" firstSheet="1" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="概述" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="667" uniqueCount="246">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="676" uniqueCount="253">
   <si>
     <t>1、本文档中所有工作表名均为无前缀表名，使用中请根据实际情况加入表前缀
 2、目前dududache使用dudu_表前缀</t>
@@ -182,19 +182,6 @@
   <si>
     <t>tinyint(1)</t>
     <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>0请求
-1去
-2不去（拒绝）
-3无应答（2次无应答）
-4车到了
-5上车了
-6未上车
-7车没来
-8失败（没有符合条件的车）
-9我出发了（约车情况使用）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>小数点后保留6位小数</t>
@@ -553,10 +540,6 @@
   </si>
   <si>
     <t>司机ID</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>broke_num</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -866,22 +849,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>二进制位数表示
-0请求
-1去
-2不去（拒绝）
-3无应答（2次无应答）
-4取消
-5车到了
-6乘客上车了
-7司机确认上车了
-8未上车
-9车没来
-10失败（没有符合条件的车）
-11我出发了（约车情况使用）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>last_login_position</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -899,10 +866,6 @@
   </si>
   <si>
     <t>use_time</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>valid_time</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -1088,6 +1051,74 @@
   </si>
   <si>
     <t>driver_arrived_time</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>broke_num</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ctime</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>integer</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>评价时间</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>valid_time</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>start_position</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>起始地经纬度</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>end_position</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>目的地经纬度</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>二进制位数表示
+0请求
+1去
+2不去（拒绝）
+3无应答（2次无应答）
+4取消
+5车到了
+6乘客上车了
+7司机确认上车了
+8未上车
+9车没来
+10失败（没有符合条件的车）
+11我出发了（约车情况使用）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>二进制位数表示
+0请求
+1去
+2不去（拒绝）
+3无应答（2次无应答）
+4取消
+5车到了
+6乘客上车了
+7司机确认上车了
+8未上车
+9车没来
+10失败（没有符合条件的车）
+11我出发了（约车情况使用）</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1653,19 +1684,19 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C2" t="s">
+        <v>97</v>
+      </c>
+      <c r="D2" t="s">
         <v>98</v>
       </c>
-      <c r="D2" t="s">
-        <v>99</v>
-      </c>
       <c r="E2" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="G2" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="H2" t="s">
         <v>15</v>
@@ -1676,16 +1707,16 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C3" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D3" t="s">
+        <v>101</v>
+      </c>
+      <c r="G3" t="s">
         <v>102</v>
-      </c>
-      <c r="G3" t="s">
-        <v>103</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -1693,16 +1724,16 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C4" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D4" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="G4" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -1710,16 +1741,16 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
+        <v>104</v>
+      </c>
+      <c r="C5" t="s">
+        <v>97</v>
+      </c>
+      <c r="D5" t="s">
         <v>105</v>
       </c>
-      <c r="C5" t="s">
-        <v>98</v>
-      </c>
-      <c r="D5" t="s">
-        <v>106</v>
-      </c>
       <c r="E5" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="H5" t="s">
         <v>7</v>
@@ -1775,19 +1806,19 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="C2" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="D2" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="E2" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="G2" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="H2" t="s">
         <v>15</v>
@@ -1798,13 +1829,13 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="C3" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D3" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -1812,13 +1843,13 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="C4" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="D4" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="H4" t="s">
         <v>7</v>
@@ -1829,22 +1860,22 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C5" t="s">
         <v>36</v>
       </c>
       <c r="D5" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="E5" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="F5">
         <v>0</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
     </row>
   </sheetData>
@@ -1897,13 +1928,13 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="C2" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="G2" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="H2" t="s">
         <v>15</v>
@@ -1914,10 +1945,10 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="C3" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
   </sheetData>
@@ -1969,16 +2000,16 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C2" t="s">
+        <v>156</v>
+      </c>
+      <c r="D2" t="s">
+        <v>157</v>
+      </c>
+      <c r="H2" t="s">
         <v>158</v>
-      </c>
-      <c r="D2" t="s">
-        <v>159</v>
-      </c>
-      <c r="H2" t="s">
-        <v>160</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -1986,13 +2017,13 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="C3" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="D3" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -2000,13 +2031,13 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>215</v>
+        <v>211</v>
       </c>
       <c r="C4" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="D4" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
     </row>
     <row r="5" spans="1:8" ht="81">
@@ -2014,22 +2045,22 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>216</v>
+        <v>212</v>
       </c>
       <c r="C5" t="s">
-        <v>217</v>
+        <v>213</v>
       </c>
       <c r="D5" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="E5" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="F5" t="b">
         <v>1</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>218</v>
+        <v>214</v>
       </c>
     </row>
   </sheetData>
@@ -2081,19 +2112,19 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>219</v>
+        <v>215</v>
       </c>
       <c r="C2" t="s">
+        <v>50</v>
+      </c>
+      <c r="D2" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="D2" s="1" t="s">
-        <v>52</v>
-      </c>
       <c r="E2" s="3" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="H2" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -2101,13 +2132,13 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="C3" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="D3" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -2115,24 +2146,24 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>220</v>
+        <v>216</v>
       </c>
       <c r="C4" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="D4" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
     </row>
     <row r="5" spans="1:8">
       <c r="B5" t="s">
+        <v>176</v>
+      </c>
+      <c r="C5" t="s">
+        <v>177</v>
+      </c>
+      <c r="D5" t="s">
         <v>178</v>
-      </c>
-      <c r="C5" t="s">
-        <v>179</v>
-      </c>
-      <c r="D5" t="s">
-        <v>180</v>
       </c>
     </row>
   </sheetData>
@@ -2184,19 +2215,19 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
+        <v>49</v>
+      </c>
+      <c r="C2" t="s">
         <v>50</v>
       </c>
-      <c r="C2" t="s">
+      <c r="D2" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="D2" s="1" t="s">
-        <v>52</v>
-      </c>
       <c r="E2" s="3" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="H2" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -2204,13 +2235,13 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="C3" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="D3" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -2218,54 +2249,54 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="C4" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="D4" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
     </row>
     <row r="5" spans="1:8" ht="40.5">
       <c r="B5" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C5" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="D5" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
     </row>
     <row r="6" spans="1:8">
       <c r="B6" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="C6" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
     </row>
     <row r="7" spans="1:8">
       <c r="B7" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="C7" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
     </row>
     <row r="8" spans="1:8">
       <c r="B8" t="s">
+        <v>176</v>
+      </c>
+      <c r="C8" t="s">
+        <v>177</v>
+      </c>
+      <c r="D8" t="s">
         <v>178</v>
-      </c>
-      <c r="C8" t="s">
-        <v>179</v>
-      </c>
-      <c r="D8" t="s">
-        <v>180</v>
       </c>
     </row>
   </sheetData>
@@ -2318,7 +2349,7 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="C2" t="s">
         <v>34</v>
@@ -2330,62 +2361,62 @@
         <v>14</v>
       </c>
       <c r="H2" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="3" spans="1:8">
       <c r="B3" t="s">
+        <v>188</v>
+      </c>
+      <c r="C3" t="s">
+        <v>189</v>
+      </c>
+      <c r="D3" t="s">
         <v>190</v>
-      </c>
-      <c r="C3" t="s">
-        <v>191</v>
-      </c>
-      <c r="D3" t="s">
-        <v>192</v>
       </c>
     </row>
     <row r="4" spans="1:8">
       <c r="B4" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="D4" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
     </row>
     <row r="5" spans="1:8" ht="28.5" customHeight="1">
       <c r="B5" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="C5" t="s">
         <v>36</v>
       </c>
       <c r="D5" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="G5" s="6" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
     </row>
     <row r="6" spans="1:8">
       <c r="B6" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="C6" t="s">
         <v>34</v>
       </c>
       <c r="D6" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="H6" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
     </row>
     <row r="7" spans="1:8">
       <c r="B7" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="C7" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
   </sheetData>
@@ -2445,10 +2476,10 @@
         <v>34</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="H2" t="s">
         <v>15</v>
@@ -2459,19 +2490,19 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
+        <v>54</v>
+      </c>
+      <c r="C3" t="s">
         <v>55</v>
       </c>
-      <c r="C3" t="s">
+      <c r="D3" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="E3" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="G3" t="s">
         <v>56</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="E3" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="G3" t="s">
-        <v>57</v>
       </c>
       <c r="H3" t="s">
         <v>7</v>
@@ -2482,13 +2513,13 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>228</v>
+        <v>224</v>
       </c>
       <c r="C4" t="s">
-        <v>221</v>
+        <v>217</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>224</v>
+        <v>220</v>
       </c>
     </row>
   </sheetData>
@@ -2540,16 +2571,16 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>229</v>
+        <v>225</v>
       </c>
       <c r="C2" t="s">
         <v>34</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="H2" t="s">
         <v>15</v>
@@ -2560,19 +2591,19 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
+        <v>54</v>
+      </c>
+      <c r="C3" t="s">
         <v>55</v>
       </c>
-      <c r="C3" t="s">
+      <c r="D3" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="E3" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="G3" t="s">
         <v>56</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="E3" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="G3" t="s">
-        <v>57</v>
       </c>
       <c r="H3" t="s">
         <v>7</v>
@@ -2583,13 +2614,13 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>223</v>
+        <v>219</v>
       </c>
       <c r="C4" t="s">
-        <v>221</v>
+        <v>217</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>224</v>
+        <v>220</v>
       </c>
     </row>
     <row r="5" spans="1:8" ht="67.5">
@@ -2600,16 +2631,16 @@
         <v>16</v>
       </c>
       <c r="C5" t="s">
-        <v>225</v>
+        <v>221</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>226</v>
+        <v>222</v>
       </c>
       <c r="F5">
         <v>0</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>227</v>
+        <v>223</v>
       </c>
     </row>
   </sheetData>
@@ -2665,16 +2696,16 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>236</v>
+        <v>232</v>
       </c>
       <c r="C2" t="s">
-        <v>231</v>
+        <v>227</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>233</v>
+        <v>229</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="3" spans="1:8" ht="27">
@@ -2682,22 +2713,22 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>237</v>
+        <v>233</v>
       </c>
       <c r="C3" t="s">
-        <v>232</v>
+        <v>228</v>
       </c>
       <c r="D3" s="1" t="s">
         <v>2</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>234</v>
+        <v>230</v>
       </c>
       <c r="H3" s="8" t="s">
-        <v>240</v>
+        <v>236</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -2705,22 +2736,22 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>238</v>
+        <v>234</v>
       </c>
       <c r="C4" t="s">
+        <v>231</v>
+      </c>
+      <c r="D4" s="1" t="s">
         <v>235</v>
       </c>
-      <c r="D4" s="1" t="s">
-        <v>239</v>
-      </c>
       <c r="E4" s="3" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="H4" s="8"/>
     </row>
     <row r="16" spans="1:8">
       <c r="C16" s="7" t="s">
-        <v>241</v>
+        <v>237</v>
       </c>
       <c r="D16" s="7"/>
       <c r="E16" s="7"/>
@@ -2815,22 +2846,22 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
+        <v>49</v>
+      </c>
+      <c r="C2" t="s">
         <v>50</v>
       </c>
-      <c r="C2" t="s">
+      <c r="D2" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="D2" s="1" t="s">
+      <c r="E2" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="G2" t="s">
         <v>52</v>
       </c>
-      <c r="E2" s="3" t="s">
-        <v>54</v>
-      </c>
-      <c r="G2" t="s">
-        <v>53</v>
-      </c>
       <c r="H2" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -2838,22 +2869,22 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
+        <v>54</v>
+      </c>
+      <c r="C3" t="s">
         <v>55</v>
       </c>
-      <c r="C3" t="s">
+      <c r="D3" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="E3" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="G3" t="s">
         <v>56</v>
       </c>
-      <c r="D3" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="E3" s="3" t="s">
-        <v>54</v>
-      </c>
-      <c r="G3" t="s">
-        <v>57</v>
-      </c>
       <c r="H3" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -2861,19 +2892,19 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
+        <v>67</v>
+      </c>
+      <c r="C4" t="s">
         <v>68</v>
       </c>
-      <c r="C4" t="s">
+      <c r="D4" s="1" t="s">
         <v>69</v>
       </c>
-      <c r="D4" s="1" t="s">
+      <c r="E4" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="F4" t="s">
         <v>70</v>
-      </c>
-      <c r="E4" s="3" t="s">
-        <v>63</v>
-      </c>
-      <c r="F4" t="s">
-        <v>71</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -2881,16 +2912,16 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
+        <v>58</v>
+      </c>
+      <c r="C5" t="s">
         <v>59</v>
       </c>
-      <c r="C5" t="s">
+      <c r="D5" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="D5" s="1" t="s">
-        <v>61</v>
-      </c>
       <c r="E5" s="3" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -2898,13 +2929,13 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="C6" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -2912,30 +2943,30 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
+        <v>149</v>
+      </c>
+      <c r="C7" t="s">
+        <v>150</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="E7" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="G7" s="1" t="s">
         <v>151</v>
-      </c>
-      <c r="C7" t="s">
-        <v>152</v>
-      </c>
-      <c r="D7" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="E7" s="3" t="s">
-        <v>54</v>
-      </c>
-      <c r="G7" s="1" t="s">
-        <v>153</v>
       </c>
     </row>
     <row r="8" spans="1:8">
       <c r="B8" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="C8" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="G8" s="1"/>
     </row>
@@ -2944,19 +2975,19 @@
         <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C9" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="E9" s="3" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="F9" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="10" spans="1:8">
@@ -2964,16 +2995,16 @@
         <v>8</v>
       </c>
       <c r="B10" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C10" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="E10" s="3" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="11" spans="1:8" ht="20.25" customHeight="1">
@@ -2981,13 +3012,13 @@
         <v>9</v>
       </c>
       <c r="B11" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C11" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="12" spans="1:8" ht="17.25" customHeight="1">
@@ -2995,13 +3026,13 @@
         <v>10</v>
       </c>
       <c r="B12" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C12" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="13" spans="1:8">
@@ -3009,13 +3040,13 @@
         <v>11</v>
       </c>
       <c r="B13" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="C13" t="s">
-        <v>222</v>
+        <v>218</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
     </row>
     <row r="14" spans="1:8" ht="81">
@@ -3023,25 +3054,25 @@
         <v>13</v>
       </c>
       <c r="B14" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C14" t="s">
         <v>36</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="E14" s="3" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="F14">
         <v>1</v>
       </c>
       <c r="G14" s="1" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="H14" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="15" spans="1:8">
@@ -3049,13 +3080,13 @@
         <v>14</v>
       </c>
       <c r="B15" t="s">
+        <v>93</v>
+      </c>
+      <c r="C15" t="s">
+        <v>95</v>
+      </c>
+      <c r="D15" s="1" t="s">
         <v>94</v>
-      </c>
-      <c r="C15" t="s">
-        <v>96</v>
-      </c>
-      <c r="D15" s="1" t="s">
-        <v>95</v>
       </c>
     </row>
   </sheetData>
@@ -3115,10 +3146,10 @@
         <v>34</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="H2" t="s">
         <v>15</v>
@@ -3132,16 +3163,16 @@
         <v>16</v>
       </c>
       <c r="C3" t="s">
-        <v>232</v>
+        <v>228</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>243</v>
+        <v>239</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>242</v>
+        <v>238</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -3200,22 +3231,22 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
+        <v>84</v>
+      </c>
+      <c r="C2" t="s">
+        <v>50</v>
+      </c>
+      <c r="D2" s="1" t="s">
         <v>85</v>
       </c>
-      <c r="C2" t="s">
-        <v>51</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>86</v>
-      </c>
       <c r="E2" s="3" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="G2" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="H2" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -3223,22 +3254,22 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
+        <v>54</v>
+      </c>
+      <c r="C3" t="s">
         <v>55</v>
       </c>
-      <c r="C3" t="s">
+      <c r="D3" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="E3" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="G3" t="s">
         <v>56</v>
       </c>
-      <c r="D3" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="E3" s="3" t="s">
-        <v>54</v>
-      </c>
-      <c r="G3" t="s">
-        <v>57</v>
-      </c>
       <c r="H3" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -3246,19 +3277,19 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
+        <v>67</v>
+      </c>
+      <c r="C4" t="s">
         <v>68</v>
       </c>
-      <c r="C4" t="s">
+      <c r="D4" s="1" t="s">
         <v>69</v>
       </c>
-      <c r="D4" s="1" t="s">
+      <c r="E4" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="F4" t="s">
         <v>70</v>
-      </c>
-      <c r="E4" s="3" t="s">
-        <v>63</v>
-      </c>
-      <c r="F4" t="s">
-        <v>71</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -3266,16 +3297,16 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
+        <v>58</v>
+      </c>
+      <c r="C5" t="s">
         <v>59</v>
       </c>
-      <c r="C5" t="s">
+      <c r="D5" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="D5" s="1" t="s">
-        <v>61</v>
-      </c>
       <c r="E5" s="3" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -3283,13 +3314,13 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>230</v>
+        <v>226</v>
       </c>
       <c r="C6" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="E6" s="3"/>
     </row>
@@ -3298,31 +3329,31 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
+        <v>149</v>
+      </c>
+      <c r="C7" t="s">
+        <v>150</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="E7" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="G7" s="1" t="s">
         <v>151</v>
-      </c>
-      <c r="C7" t="s">
-        <v>152</v>
-      </c>
-      <c r="D7" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="E7" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="G7" s="1" t="s">
-        <v>153</v>
       </c>
     </row>
     <row r="8" spans="1:8">
       <c r="A8" s="3"/>
       <c r="B8" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="C8" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="E8" s="3"/>
       <c r="G8" s="1"/>
@@ -3332,20 +3363,20 @@
         <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="C9" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="E9" s="3" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="G9" s="1"/>
       <c r="H9" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="10" spans="1:8">
@@ -3353,20 +3384,20 @@
         <v>8</v>
       </c>
       <c r="B10" t="s">
+        <v>90</v>
+      </c>
+      <c r="C10" t="s">
+        <v>140</v>
+      </c>
+      <c r="D10" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="C10" t="s">
-        <v>142</v>
-      </c>
-      <c r="D10" s="1" t="s">
-        <v>92</v>
-      </c>
       <c r="E10" s="3" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="G10" s="1"/>
       <c r="H10" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="11" spans="1:8" ht="19.5" customHeight="1">
@@ -3374,20 +3405,20 @@
         <v>9</v>
       </c>
       <c r="B11" t="s">
+        <v>87</v>
+      </c>
+      <c r="C11" t="s">
         <v>88</v>
       </c>
-      <c r="C11" t="s">
+      <c r="D11" s="1" t="s">
         <v>89</v>
       </c>
-      <c r="D11" s="1" t="s">
-        <v>90</v>
-      </c>
       <c r="E11" s="3" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="G11" s="1"/>
       <c r="H11" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="12" spans="1:8" ht="19.5" customHeight="1">
@@ -3395,20 +3426,20 @@
         <v>10</v>
       </c>
       <c r="B12" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="C12" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="E12" s="3" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="G12" s="1"/>
       <c r="H12" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="13" spans="1:8">
@@ -3416,19 +3447,19 @@
         <v>11</v>
       </c>
       <c r="B13" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C13" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="E13" s="3" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="F13" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="14" spans="1:8">
@@ -3436,16 +3467,16 @@
         <v>12</v>
       </c>
       <c r="B14" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C14" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="E14" s="3" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="15" spans="1:8" ht="27">
@@ -3453,13 +3484,13 @@
         <v>13</v>
       </c>
       <c r="B15" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C15" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="E15" s="3"/>
     </row>
@@ -3468,13 +3499,13 @@
         <v>14</v>
       </c>
       <c r="B16" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C16" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="E16" s="3"/>
     </row>
@@ -3483,13 +3514,13 @@
         <v>15</v>
       </c>
       <c r="B17" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="C17" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="E17" s="3"/>
     </row>
@@ -3498,22 +3529,22 @@
         <v>17</v>
       </c>
       <c r="B18" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C18" t="s">
         <v>36</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="E18" s="3" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="F18">
         <v>1</v>
       </c>
       <c r="G18" s="1" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="19" spans="1:7">
@@ -3521,16 +3552,16 @@
         <v>18</v>
       </c>
       <c r="B19" t="s">
+        <v>93</v>
+      </c>
+      <c r="C19" t="s">
+        <v>95</v>
+      </c>
+      <c r="D19" s="1" t="s">
         <v>94</v>
       </c>
-      <c r="C19" t="s">
+      <c r="G19" t="s">
         <v>96</v>
-      </c>
-      <c r="D19" s="1" t="s">
-        <v>95</v>
-      </c>
-      <c r="G19" t="s">
-        <v>97</v>
       </c>
     </row>
   </sheetData>
@@ -3545,8 +3576,8 @@
   <sheetPr codeName="Sheet4"/>
   <dimension ref="A1:H16"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="B13" sqref="B13"/>
+    <sheetView topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="G7" sqref="G7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -3588,7 +3619,7 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="C2" t="s">
         <v>34</v>
@@ -3597,7 +3628,7 @@
         <v>11</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="G2" s="3" t="s">
         <v>14</v>
@@ -3620,7 +3651,7 @@
         <v>12</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="H3" t="s">
         <v>7</v>
@@ -3640,7 +3671,7 @@
         <v>13</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="H4" t="s">
         <v>7</v>
@@ -3651,16 +3682,16 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="C5" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="D5" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="E5" s="3" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -3668,16 +3699,16 @@
         <v>6</v>
       </c>
       <c r="B6" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="C6" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="D6" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="E6" s="3" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="7" spans="1:8" ht="206.25" customHeight="1">
@@ -3694,13 +3725,13 @@
         <v>26</v>
       </c>
       <c r="E7" s="3" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="F7" s="3">
         <v>0</v>
       </c>
       <c r="G7" s="1" t="s">
-        <v>201</v>
+        <v>251</v>
       </c>
       <c r="H7" t="s">
         <v>7</v>
@@ -3711,19 +3742,19 @@
         <v>9</v>
       </c>
       <c r="B8" t="s">
-        <v>205</v>
+        <v>202</v>
       </c>
       <c r="C8" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D8" t="s">
         <v>27</v>
       </c>
       <c r="E8" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="F8" s="3" t="s">
         <v>42</v>
-      </c>
-      <c r="F8" s="3" t="s">
-        <v>43</v>
       </c>
       <c r="H8" t="s">
         <v>7</v>
@@ -3737,16 +3768,16 @@
         <v>18</v>
       </c>
       <c r="C9" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D9" t="s">
         <v>28</v>
       </c>
       <c r="E9" s="3" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F9" s="3" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="10" spans="1:8" ht="27">
@@ -3757,16 +3788,16 @@
         <v>19</v>
       </c>
       <c r="C10" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D10" t="s">
         <v>31</v>
       </c>
       <c r="E10" s="3" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="F10" s="2" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="11" spans="1:8">
@@ -3777,13 +3808,13 @@
         <v>20</v>
       </c>
       <c r="C11" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D11" t="s">
         <v>32</v>
       </c>
       <c r="E11" s="3" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="12" spans="1:8">
@@ -3791,16 +3822,16 @@
         <v>13</v>
       </c>
       <c r="B12" t="s">
-        <v>245</v>
+        <v>241</v>
       </c>
       <c r="C12" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D12" t="s">
-        <v>244</v>
+        <v>240</v>
       </c>
       <c r="E12" s="3" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="13" spans="1:8">
@@ -3811,13 +3842,13 @@
         <v>23</v>
       </c>
       <c r="C13" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D13" t="s">
         <v>24</v>
       </c>
       <c r="E13" s="3" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="14" spans="1:8">
@@ -3825,16 +3856,16 @@
         <v>15</v>
       </c>
       <c r="B14" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="C14" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="D14" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="E14" s="3" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="15" spans="1:8" ht="81">
@@ -3842,7 +3873,7 @@
         <v>17</v>
       </c>
       <c r="B15" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="C15" t="s">
         <v>36</v>
@@ -3851,13 +3882,13 @@
         <v>30</v>
       </c>
       <c r="E15" s="3" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F15" s="3">
         <v>0</v>
       </c>
       <c r="G15" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="H15" t="s">
         <v>7</v>
@@ -3871,7 +3902,7 @@
         <v>33</v>
       </c>
       <c r="C16" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D16" t="s">
         <v>29</v>
@@ -3880,15 +3911,16 @@
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr codeName="Sheet5"/>
-  <dimension ref="A1:H18"/>
+  <dimension ref="A1:I20"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
       <selection activeCell="G7" sqref="G7"/>
     </sheetView>
   </sheetViews>
@@ -3898,9 +3930,10 @@
     <col min="3" max="3" width="23.125" customWidth="1"/>
     <col min="4" max="4" width="13.25" customWidth="1"/>
     <col min="7" max="7" width="23.25" customWidth="1"/>
+    <col min="9" max="9" width="21.75" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8">
+    <row r="1" spans="1:9">
       <c r="A1" s="3"/>
       <c r="B1" t="s">
         <v>1</v>
@@ -3924,7 +3957,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:8">
+    <row r="2" spans="1:9">
       <c r="A2" s="3">
         <v>1</v>
       </c>
@@ -3938,7 +3971,7 @@
         <v>11</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="F2" s="3" t="s">
         <v>14</v>
@@ -3947,7 +3980,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="3" spans="1:8">
+    <row r="3" spans="1:9">
       <c r="A3" s="3">
         <v>2</v>
       </c>
@@ -3961,14 +3994,14 @@
         <v>12</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="F3" s="3"/>
       <c r="H3" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="4" spans="1:8">
+    <row r="4" spans="1:9">
       <c r="A4" s="3">
         <v>3</v>
       </c>
@@ -3982,56 +4015,56 @@
         <v>13</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="F4" s="3"/>
       <c r="H4" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="5" spans="1:8">
+    <row r="5" spans="1:9">
       <c r="A5" s="3">
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="C5" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="D5" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="E5" s="3" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="F5" s="3"/>
       <c r="G5" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9">
       <c r="A6" s="3">
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="C6" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="D6" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="E6" s="3" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="F6" s="3"/>
       <c r="G6" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" ht="174.75" customHeight="1">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" ht="237" customHeight="1">
       <c r="A7" s="3">
         <v>8</v>
       </c>
@@ -4045,19 +4078,20 @@
         <v>26</v>
       </c>
       <c r="E7" s="3" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="F7" s="3">
         <v>0</v>
       </c>
       <c r="G7" s="1" t="s">
-        <v>37</v>
+        <v>252</v>
       </c>
       <c r="H7" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="8" spans="1:8">
+      <c r="I7" s="1"/>
+    </row>
+    <row r="8" spans="1:9">
       <c r="A8" s="3">
         <v>9</v>
       </c>
@@ -4065,22 +4099,22 @@
         <v>17</v>
       </c>
       <c r="C8" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D8" t="s">
         <v>27</v>
       </c>
       <c r="E8" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="F8" s="3" t="s">
         <v>42</v>
-      </c>
-      <c r="F8" s="3" t="s">
-        <v>43</v>
       </c>
       <c r="H8" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="9" spans="1:8">
+    <row r="9" spans="1:9">
       <c r="A9" s="3">
         <v>10</v>
       </c>
@@ -4088,47 +4122,47 @@
         <v>18</v>
       </c>
       <c r="C9" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D9" t="s">
         <v>28</v>
       </c>
       <c r="E9" s="3" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F9" s="3" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9">
       <c r="A10" s="3"/>
       <c r="B10" s="5" t="s">
-        <v>206</v>
+        <v>203</v>
       </c>
       <c r="C10" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D10" s="5" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="E10" s="3"/>
       <c r="F10" s="3"/>
     </row>
-    <row r="11" spans="1:8">
+    <row r="11" spans="1:9">
       <c r="A11" s="3"/>
       <c r="B11" s="5" t="s">
-        <v>207</v>
+        <v>246</v>
       </c>
       <c r="C11" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D11" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="E11" s="3"/>
       <c r="F11" s="3"/>
     </row>
-    <row r="12" spans="1:8" ht="40.5">
+    <row r="12" spans="1:9" ht="40.5">
       <c r="A12" s="3">
         <v>11</v>
       </c>
@@ -4136,131 +4170,159 @@
         <v>19</v>
       </c>
       <c r="C12" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D12" t="s">
         <v>31</v>
       </c>
       <c r="E12" s="3" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="F12" s="2" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8">
-      <c r="A13" s="3">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9">
+      <c r="A13" s="3"/>
+      <c r="B13" t="s">
+        <v>247</v>
+      </c>
+      <c r="C13" t="s">
+        <v>153</v>
+      </c>
+      <c r="D13" t="s">
+        <v>248</v>
+      </c>
+      <c r="E13" s="3"/>
+      <c r="F13" s="2"/>
+    </row>
+    <row r="14" spans="1:9">
+      <c r="A14" s="3">
         <v>12</v>
       </c>
-      <c r="B13" t="s">
+      <c r="B14" t="s">
         <v>20</v>
       </c>
-      <c r="C13" t="s">
-        <v>47</v>
-      </c>
-      <c r="D13" t="s">
+      <c r="C14" t="s">
+        <v>46</v>
+      </c>
+      <c r="D14" t="s">
         <v>32</v>
       </c>
-      <c r="E13" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="F13" s="3"/>
-    </row>
-    <row r="14" spans="1:8">
-      <c r="A14" s="3">
+      <c r="E14" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="F14" s="3"/>
+    </row>
+    <row r="15" spans="1:9">
+      <c r="A15" s="3"/>
+      <c r="B15" t="s">
+        <v>249</v>
+      </c>
+      <c r="C15" t="s">
+        <v>153</v>
+      </c>
+      <c r="D15" t="s">
+        <v>250</v>
+      </c>
+      <c r="E15" s="3"/>
+      <c r="F15" s="3"/>
+    </row>
+    <row r="16" spans="1:9">
+      <c r="A16" s="3">
         <v>13</v>
       </c>
-      <c r="B14" t="s">
+      <c r="B16" t="s">
         <v>21</v>
       </c>
-      <c r="C14" t="s">
-        <v>40</v>
-      </c>
-      <c r="D14" t="s">
+      <c r="C16" t="s">
+        <v>39</v>
+      </c>
+      <c r="D16" t="s">
         <v>22</v>
       </c>
-      <c r="E14" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="F14" s="3"/>
-    </row>
-    <row r="15" spans="1:8">
-      <c r="A15" s="3">
+      <c r="E16" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="F16" s="3"/>
+    </row>
+    <row r="17" spans="1:8">
+      <c r="A17" s="3">
         <v>14</v>
       </c>
-      <c r="B15" t="s">
+      <c r="B17" t="s">
         <v>23</v>
       </c>
-      <c r="C15" t="s">
-        <v>40</v>
-      </c>
-      <c r="D15" t="s">
+      <c r="C17" t="s">
+        <v>39</v>
+      </c>
+      <c r="D17" t="s">
         <v>24</v>
       </c>
-      <c r="E15" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="F15" s="3"/>
-    </row>
-    <row r="16" spans="1:8">
-      <c r="A16" s="3">
-        <v>15</v>
-      </c>
-      <c r="B16" t="s">
-        <v>175</v>
-      </c>
-      <c r="C16" t="s">
-        <v>155</v>
-      </c>
-      <c r="D16" t="s">
-        <v>172</v>
-      </c>
-      <c r="E16" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="F16" s="3"/>
-    </row>
-    <row r="17" spans="1:8" ht="81">
-      <c r="A17" s="3">
-        <v>17</v>
-      </c>
-      <c r="B17" t="s">
-        <v>25</v>
-      </c>
-      <c r="C17" t="s">
-        <v>36</v>
-      </c>
-      <c r="D17" t="s">
-        <v>30</v>
-      </c>
       <c r="E17" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="F17" s="3">
-        <v>0</v>
-      </c>
-      <c r="G17" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="H17" t="s">
-        <v>7</v>
-      </c>
+        <v>41</v>
+      </c>
+      <c r="F17" s="3"/>
     </row>
     <row r="18" spans="1:8">
       <c r="A18" s="3">
+        <v>15</v>
+      </c>
+      <c r="B18" t="s">
+        <v>173</v>
+      </c>
+      <c r="C18" t="s">
+        <v>153</v>
+      </c>
+      <c r="D18" t="s">
+        <v>170</v>
+      </c>
+      <c r="E18" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="F18" s="3"/>
+    </row>
+    <row r="19" spans="1:8" ht="81">
+      <c r="A19" s="3">
+        <v>17</v>
+      </c>
+      <c r="B19" t="s">
+        <v>25</v>
+      </c>
+      <c r="C19" t="s">
+        <v>36</v>
+      </c>
+      <c r="D19" t="s">
+        <v>30</v>
+      </c>
+      <c r="E19" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="F19" s="3">
+        <v>0</v>
+      </c>
+      <c r="G19" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="H19" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8">
+      <c r="A20" s="3">
         <v>18</v>
       </c>
-      <c r="B18" t="s">
+      <c r="B20" t="s">
         <v>33</v>
       </c>
-      <c r="C18" t="s">
-        <v>47</v>
-      </c>
-      <c r="D18" t="s">
+      <c r="C20" t="s">
+        <v>46</v>
+      </c>
+      <c r="D20" t="s">
         <v>29</v>
       </c>
-      <c r="E18" s="3"/>
-      <c r="F18" s="3"/>
+      <c r="E20" s="3"/>
+      <c r="F20" s="3"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -4319,10 +4381,10 @@
         <v>34</v>
       </c>
       <c r="D2" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="H2" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -4330,13 +4392,13 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="C3" t="s">
+        <v>114</v>
+      </c>
+      <c r="D3" t="s">
         <v>115</v>
-      </c>
-      <c r="D3" t="s">
-        <v>116</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -4344,13 +4406,13 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="C4" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="D4" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -4358,13 +4420,13 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="C5" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="D5" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -4372,13 +4434,13 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>208</v>
+        <v>204</v>
       </c>
       <c r="C6" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="D6" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
     </row>
   </sheetData>
@@ -4392,7 +4454,7 @@
   <dimension ref="A1:H10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -4431,13 +4493,13 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C2" s="4" t="s">
         <v>34</v>
       </c>
       <c r="D2" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="H2" t="s">
         <v>7</v>
@@ -4448,13 +4510,13 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="C3" t="s">
+        <v>114</v>
+      </c>
+      <c r="D3" t="s">
         <v>115</v>
-      </c>
-      <c r="D3" t="s">
-        <v>116</v>
       </c>
       <c r="H3" t="s">
         <v>7</v>
@@ -4465,13 +4527,13 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="C4" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="D4" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -4479,13 +4541,13 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="C5" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="D5" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -4493,13 +4555,13 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>125</v>
+        <v>242</v>
       </c>
       <c r="C6" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="D6" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -4507,13 +4569,13 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>210</v>
+        <v>206</v>
       </c>
       <c r="C7" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="D7" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="H7" t="s">
         <v>7</v>
@@ -4524,13 +4586,13 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="C8" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="D8" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
     </row>
     <row r="9" spans="1:8">
@@ -4538,13 +4600,13 @@
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>209</v>
+        <v>205</v>
       </c>
       <c r="C9" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="D9" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
     </row>
     <row r="10" spans="1:8">
@@ -4552,13 +4614,13 @@
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="C10" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="D10" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
     </row>
   </sheetData>
@@ -4617,7 +4679,7 @@
         <v>34</v>
       </c>
       <c r="D2" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="H2" t="s">
         <v>7</v>
@@ -4628,16 +4690,16 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>211</v>
+        <v>207</v>
       </c>
       <c r="C3" t="s">
+        <v>131</v>
+      </c>
+      <c r="D3" t="s">
+        <v>132</v>
+      </c>
+      <c r="G3" s="1" t="s">
         <v>133</v>
-      </c>
-      <c r="D3" t="s">
-        <v>134</v>
-      </c>
-      <c r="G3" s="1" t="s">
-        <v>135</v>
       </c>
     </row>
   </sheetData>
@@ -4648,10 +4710,10 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H7"/>
+  <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+      <selection activeCell="G8" sqref="G8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -4691,7 +4753,7 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="C2" t="s">
         <v>34</v>
@@ -4708,7 +4770,7 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="C3" t="s">
         <v>34</v>
@@ -4719,7 +4781,7 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="C4" t="s">
         <v>34</v>
@@ -4730,16 +4792,16 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="C5" t="s">
         <v>36</v>
       </c>
       <c r="D5" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
     </row>
     <row r="6" spans="1:8" ht="41.25" customHeight="1">
@@ -4747,16 +4809,16 @@
         <v>5</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>214</v>
+        <v>210</v>
       </c>
       <c r="C6" t="s">
-        <v>213</v>
+        <v>209</v>
       </c>
       <c r="D6" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="G6" s="1" t="s">
-        <v>212</v>
+        <v>208</v>
       </c>
     </row>
     <row r="7" spans="1:8" ht="40.5">
@@ -4764,16 +4826,27 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="C7" t="s">
+        <v>135</v>
+      </c>
+      <c r="D7" t="s">
+        <v>146</v>
+      </c>
+      <c r="G7" s="1" t="s">
         <v>137</v>
       </c>
-      <c r="D7" t="s">
-        <v>148</v>
-      </c>
-      <c r="G7" s="1" t="s">
-        <v>139</v>
+    </row>
+    <row r="8" spans="1:8">
+      <c r="B8" t="s">
+        <v>243</v>
+      </c>
+      <c r="C8" t="s">
+        <v>244</v>
+      </c>
+      <c r="D8" t="s">
+        <v>245</v>
       </c>
     </row>
   </sheetData>
